--- a/branches/cleanup/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/cleanup/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:35:13+00:00</t>
+    <t>2023-03-03T15:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
